--- a/Типовик 6 - Собственные значения и вектора.xlsx
+++ b/Типовик 6 - Собственные значения и вектора.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Boris\Documents\MIREA\Course2\Vychmat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49FFC50-9EBF-456A-B4B0-810191FE3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C21F28-8500-4DE2-9011-98E174693F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="0" windowWidth="23490" windowHeight="15480" xr2:uid="{230C48AD-2663-48CD-B354-288650DF21D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{230C48AD-2663-48CD-B354-288650DF21D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C39C05-0506-4240-8892-3FBD3A4302FB}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,74 +933,74 @@
         <v>23</v>
       </c>
       <c r="B2" s="25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="25">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D2" s="25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
       </c>
       <c r="H2" s="10">
         <f t="array" ref="H2:H4">MMULT(B2:D4,F2:F4)</f>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="J2" s="10">
         <f t="array" ref="J2:J4">MMULT(B2:D4,H2:H4)</f>
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="L2" s="10" cm="1">
         <f t="array" ref="L2:L4">MMULT(B2:D4,J2:J4)</f>
-        <v>-63</v>
+        <v>-222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="25">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="25">
         <v>2</v>
-      </c>
-      <c r="D3" s="25">
-        <v>1</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
       </c>
       <c r="H3" s="10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J3" s="10">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="L3" s="10">
-        <v>-10</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="25">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
       </c>
       <c r="H4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="10">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="L4" s="10">
-        <v>-11</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1011,11 +1011,11 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="array" ref="B8:B10">J2:J4</f>
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="C8" s="17">
         <f t="array" ref="C8:C10">H2:H4</f>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D8" s="19">
         <f t="array" ref="D8:D10">F2:F4</f>
@@ -1023,35 +1023,35 @@
       </c>
       <c r="E8" s="12">
         <f t="array" ref="E8:E10">-L2:L4</f>
-        <v>63</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="C9" s="10">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
       </c>
       <c r="E9" s="13">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="C10" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="21">
         <v>0</v>
       </c>
       <c r="E10" s="9">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1060,20 +1060,20 @@
       </c>
       <c r="B13" s="23">
         <f t="array" ref="B13:D15">MINVERSE(B8:D10)</f>
-        <v>-8.3333333333333329E-2</v>
+        <v>-1.388888888888889E-2</v>
       </c>
       <c r="C13" s="23">
         <v>0</v>
       </c>
       <c r="D13" s="23">
-        <v>-0.25</v>
+        <v>-4.1666666666666664E-2</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="10" cm="1">
         <f t="array" ref="H13:H15">MMULT(B13:D15,E8:E10)</f>
-        <v>-8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1081,19 +1081,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="23">
-        <v>8.3333333333333329E-2</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="C14" s="23">
         <v>0</v>
       </c>
       <c r="D14" s="23">
-        <v>1.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="10">
-        <v>19</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1101,19 +1101,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="23">
-        <v>0</v>
+        <v>-0.20833333333333337</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>-2</v>
+        <v>-0.125</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="10">
-        <v>-12</v>
+        <v>20.999999999999993</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="5">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1161,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -1214,12 +1214,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5">
         <f>C23*E25+$H$13*E25</f>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
         <f>C23*G25+$H$14*E25</f>
-        <v>12</v>
+        <v>-21</v>
       </c>
       <c r="J25" s="6"/>
     </row>
@@ -1250,7 +1250,7 @@
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <f t="array" ref="B28:B30">E25*$J$2:$J$4+G25*$H$2:$H$4+I25*$F$2:$F$4</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
-        <v>-6</v>
+        <v>-24</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C32" s="34">
         <f>C20</f>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1331,12 +1331,12 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5">
         <f>C32*E34+$H$13*E34</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5">
         <f>C32*G34+$H$14*E34</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J34" s="6"/>
     </row>
@@ -1367,7 +1367,7 @@
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <f t="array" ref="B37:B39">E34*$J$2:$J$4+G34*$H$2:$H$4+I34*$F$2:$F$4</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7">
-        <v>-4</v>
+        <v>-32</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1410,7 +1410,8 @@
         <v>16</v>
       </c>
       <c r="C41" s="34">
-        <v>4</v>
+        <f>C21</f>
+        <v>7</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1447,12 +1448,12 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5">
         <f>C41*E43+$H$13*E43</f>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5">
         <f>C41*G43+$H$14*E43</f>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="J43" s="6"/>
     </row>
@@ -1483,7 +1484,7 @@
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <f t="array" ref="B46:B48">E43*$J$2:$J$4+G43*$H$2:$H$4+I43*$F$2:$F$4</f>
-        <v>-3</v>
+        <v>-36</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1496,7 +1497,7 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -1509,7 +1510,7 @@
     </row>
     <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7">
-        <v>-3</v>
+        <v>-12</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1531,7 +1532,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="35">
         <f t="array" ref="G51:G53">B28:B30</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -1548,7 +1549,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="36">
-        <v>0</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -1558,7 +1559,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="36">
-        <v>-6</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -1577,7 +1578,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="36">
         <f t="array" ref="G55:G57">B37:B39</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -1587,14 +1588,14 @@
       </c>
       <c r="D56" s="5">
         <f>C32</f>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="36">
-        <v>-4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -1604,7 +1605,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="36">
-        <v>-4</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -1623,7 +1624,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="36">
         <f t="array" ref="G59:G61">B46:B48</f>
-        <v>-3</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -1633,14 +1634,14 @@
       </c>
       <c r="D60" s="5">
         <f>C41</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="36">
-        <v>-3</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1650,7 +1651,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="37">
-        <v>-3</v>
+        <v>-12</v>
       </c>
     </row>
   </sheetData>

--- a/Типовик 6 - Собственные значения и вектора.xlsx
+++ b/Типовик 6 - Собственные значения и вектора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Boris\Documents\MIREA\Course2\Vychmat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C21F28-8500-4DE2-9011-98E174693F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFEBF3D-72A7-4854-A80F-5719654FF045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{230C48AD-2663-48CD-B354-288650DF21D9}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Изначальная матрица</t>
   </si>
@@ -130,10 +130,25 @@
     <t>ТУТ ЗАМЕНИТЬ МАТРИЦУ НА СВОЮ</t>
   </si>
   <si>
-    <t>НАДО НАЙТИ КОРНИ ХАРАКТЕРИСТИЧЕСКОГО КУБИЧЕСКОГО УРАВНЕНИЯ И ВВЕСТИ СЮДА ВРУЧНУЮ</t>
-  </si>
-  <si>
     <t>Ответ</t>
+  </si>
+  <si>
+    <t>НАДО НАЙТИ КОРНИ ХАРАКТЕРИСТИЧЕСКОГО КУБИЧЕСКОГО УРАВНЕНИЯ И ВВЕСТИ В ОРАНЖЕВЫЕ ЯЧЕЙКИ ВРУЧНУЮ</t>
+  </si>
+  <si>
+    <t>Тут тоже что слева только в неправильных дробях</t>
+  </si>
+  <si>
+    <t>Если тут ошибка, значит надо найти d1, d2, d3 через фотомаф, решив слау выше</t>
+  </si>
+  <si>
+    <t>ЕСЛИ НЕ ПОДСТАВИЛ ЛЯМБДЫ В ОРАНЖЕВЫЕ ЯЧЕЙКИ ВЫШЕ, ТО ОТВЕТ НЕПРАВИЛЬНЫЙ</t>
+  </si>
+  <si>
+    <t>Тут чисто операции которые я над своей матрицей делал, над другой могут не сработать</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -171,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -508,26 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -542,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -574,13 +575,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -596,6 +605,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>477574</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFF007E-1270-41B7-894B-7625E302FD74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="2832864"/>
+          <a:ext cx="5411524" cy="1282249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -895,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C39C05-0506-4240-8892-3FBD3A4302FB}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,9 +964,13 @@
     <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" style="37" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,197 +990,540 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25">
-        <v>7</v>
-      </c>
-      <c r="C2" s="25">
-        <v>-6</v>
-      </c>
-      <c r="D2" s="25">
-        <v>6</v>
+      <c r="B2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="10" t="e">
         <f t="array" ref="H2:H4">MMULT(B2:D4,F2:F4)</f>
-        <v>-6</v>
-      </c>
-      <c r="J2" s="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J2" s="10" t="e">
         <f t="array" ref="J2:J4">MMULT(B2:D4,H2:H4)</f>
-        <v>-24</v>
-      </c>
-      <c r="L2" s="10" cm="1">
-        <f t="array" ref="L2:L4">MMULT(B2:D4,J2:J4)</f>
-        <v>-222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="25">
-        <v>2</v>
-      </c>
-      <c r="C3" s="25">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="25">
-        <v>2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L2" s="10" t="e" cm="1">
+        <f t="array" ref="L2">MMULT(B2:D4,J2:J4)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="10">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="10">
-        <v>-7</v>
-      </c>
-      <c r="L3" s="10">
-        <v>-73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="25">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25">
-        <v>2</v>
-      </c>
-      <c r="D4" s="25">
-        <v>-1</v>
+      <c r="H3" s="10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" s="10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="AI3" s="39"/>
+      <c r="AL3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="37"/>
+      <c r="AW3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="H4" s="10">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10">
-        <v>-16</v>
-      </c>
-      <c r="L4" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" s="10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="AR4" s="23" t="e">
+        <f t="shared" ref="AR4:AU6" si="0">B8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS4" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT4" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW4" s="10" t="e">
+        <f>IF(INT(AR4)=AR4,TEXT(AR4,"#"),TEXT(AR4,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX4" s="10" t="e">
+        <f t="shared" ref="AX4:AZ4" si="1">IF(INT(AS4)=AS4,TEXT(AS4,"#"),TEXT(AS4,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY4" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AZ4" s="10" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AR5" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS5" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT5" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AU5" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW5" s="10" t="e">
+        <f t="shared" ref="AW5:AW6" si="2">IF(INT(AR5)=AR5,TEXT(AR5,"#"),TEXT(AR5,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX5" s="10" t="e">
+        <f t="shared" ref="AX5:AX6" si="3">IF(INT(AS5)=AS5,TEXT(AS5,"#"),TEXT(AS5,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY5" s="10" t="str">
+        <f t="shared" ref="AY5:AY6" si="4">IF(INT(AT5)=AT5,TEXT(AT5,"#"),TEXT(AT5,"###/###"))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="10" t="str">
+        <f t="shared" ref="AZ5:AZ6" si="5">IF(INT(AU5)=AU5,TEXT(AU5,"#"),TEXT(AU5,"###/###"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AR6" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS6" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT6" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW6" s="10" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX6" s="10" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY6" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AZ6" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="e">
         <f t="array" ref="B8:B10">J2:J4</f>
-        <v>-24</v>
-      </c>
-      <c r="C8" s="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" s="17" t="e">
         <f t="array" ref="C8:C10">H2:H4</f>
-        <v>-6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D8" s="19">
         <f t="array" ref="D8:D10">F2:F4</f>
         <v>0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="12" t="e">
         <f t="array" ref="E8:E10">-L2:L4</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
-        <v>-7</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-1</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="10" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
       </c>
       <c r="E9" s="13">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16">
-        <v>-16</v>
-      </c>
-      <c r="C10" s="18">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="23" t="e">
+        <f t="array" ref="AR9:AU9">AR4:AU4/AR4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS9" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT9" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU9" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW9" s="10" t="e">
+        <f>IF(INT(AR9)=AR9,TEXT(AR9,"#"),TEXT(AR9,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX9" s="10" t="e">
+        <f t="shared" ref="AX9:AX11" si="6">IF(INT(AS9)=AS9,TEXT(AS9,"#"),TEXT(AS9,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY9" s="10" t="e">
+        <f t="shared" ref="AY9:AY11" si="7">IF(INT(AT9)=AT9,TEXT(AT9,"#"),TEXT(AT9,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ9" s="10" t="e">
+        <f t="shared" ref="AZ9:AZ11" si="8">IF(INT(AU9)=AU9,TEXT(AU9,"#"),TEXT(AU9,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="18" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D10" s="21">
         <v>0</v>
       </c>
       <c r="E10" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="23" t="e">
+        <f t="array" ref="AR10:AU10">AR5:AU5/AR5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS10" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT10" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU10" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW10" s="10" t="e">
+        <f t="shared" ref="AW10:AW11" si="9">IF(INT(AR10)=AR10,TEXT(AR10,"#"),TEXT(AR10,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX10" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY10" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ10" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AR11" s="23" t="e">
+        <f t="array" ref="AR11:AU11">AR6:AU6/AR6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS11" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT11" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU11" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW11" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX11" s="10" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY11" s="10" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ11" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="23" t="e">
         <f t="array" ref="B13:D15">MINVERSE(B8:D10)</f>
-        <v>-1.388888888888889E-2</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0</v>
-      </c>
-      <c r="D13" s="23">
-        <v>-4.1666666666666664E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="23" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="10" cm="1">
-        <f t="array" ref="H13:H15">MMULT(B13:D15,E8:E10)</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="10" t="e" cm="1">
+        <f t="array" ref="H13">MMULT(B13:D15,E8:E10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR13" s="23" t="e">
+        <f t="array" ref="AR13">AR9:AU9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS13" s="23" t="e">
+        <f t="array" ref="AS13">AS9:AV9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT13" s="23" t="e">
+        <f t="array" ref="AT13">AT9:AW9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU13" s="23" t="e">
+        <f t="array" ref="AU13">AU9:AX9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW13" s="10" t="e">
+        <f>IF(INT(AR13)=AR13,TEXT(AR13,"#"),TEXT(AR13,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX13" s="10" t="e">
+        <f t="shared" ref="AX13:AX15" si="10">IF(INT(AS13)=AS13,TEXT(AS13,"#"),TEXT(AS13,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY13" s="10" t="e">
+        <f t="shared" ref="AY13:AY15" si="11">IF(INT(AT13)=AT13,TEXT(AT13,"#"),TEXT(AT13,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ13" s="10" t="e">
+        <f t="shared" ref="AZ13:AZ15" si="12">IF(INT(AU13)=AU13,TEXT(AU13,"#"),TEXT(AU13,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="23">
-        <v>-0.1111111111111111</v>
-      </c>
-      <c r="C14" s="23">
-        <v>0</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0.16666666666666666</v>
+      <c r="B14" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="23" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="10">
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="10"/>
+      <c r="AR14" s="23" t="e">
+        <f t="array" ref="AR14:AU14">AR10:AU10-AR9:AU9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS14" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT14" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU14" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW14" s="10" t="e">
+        <f>IF(INT(AR14)=AR14,TEXT(AR14,"#"),TEXT(AR14,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX14" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY14" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ14" s="10" t="e">
+        <f>IF(INT(AU14)=AU14,TEXT(AU14,"#"),TEXT(AU14,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="23">
-        <v>-0.20833333333333337</v>
-      </c>
-      <c r="C15" s="23">
-        <v>1</v>
-      </c>
-      <c r="D15" s="23">
-        <v>-0.125</v>
+      <c r="B15" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="23" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="10">
-        <v>20.999999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="10"/>
+      <c r="AR15" s="23" t="e">
+        <f t="array" ref="AR15:AU15">AR11:AU11-AR9:AU9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS15" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT15" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU15" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW15" s="10" t="e">
+        <f t="shared" ref="AW15" si="13">IF(INT(AR15)=AR15,TEXT(AR15,"#"),TEXT(AR15,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX15" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY15" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ15" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+    </row>
+    <row r="17" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="AR17" s="23" t="e">
+        <f t="array" ref="AR17:AU17">AR13:AU13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS17" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT17" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU17" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW17" s="10" t="e">
+        <f>IF(INT(AR17)=AR17,TEXT(AR17,"#"),TEXT(AR17,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX17" s="10" t="e">
+        <f t="shared" ref="AX17:AX19" si="14">IF(INT(AS17)=AS17,TEXT(AS17,"#"),TEXT(AS17,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY17" s="10" t="e">
+        <f t="shared" ref="AY17:AY19" si="15">IF(INT(AT17)=AT17,TEXT(AT17,"#"),TEXT(AT17,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ17" s="10" t="e">
+        <f t="shared" ref="AZ17" si="16">IF(INT(AU17)=AU17,TEXT(AU17,"#"),TEXT(AU17,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B18" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -1127,13 +1532,42 @@
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
+      <c r="AR18" s="23" t="e">
+        <f t="array" ref="AR18:AU18">AR14:AU14/AS14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS18" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT18" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU18" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW18" s="10" t="e">
+        <f>IF(INT(AR18)=AR18,TEXT(AR18,"#"),TEXT(AR18,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX18" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY18" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ18" s="10" t="e">
+        <f>IF(INT(AU18)=AU18,TEXT(AU18,"#"),TEXT(AU18,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
+      <c r="C19" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1141,13 +1575,42 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+      <c r="AR19" s="23" t="e">
+        <f t="array" ref="AR19:AU19">AR15:AU15/AS15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS19" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT19" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU19" s="23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW19" s="10" t="e">
+        <f t="shared" ref="AW19" si="17">IF(INT(AR19)=AR19,TEXT(AR19,"#"),TEXT(AR19,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX19" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY19" s="10" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ19" s="10" t="e">
+        <f t="shared" ref="AZ19" si="18">IF(INT(AU19)=AU19,TEXT(AU19,"#"),TEXT(AU19,"###/###"))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="5">
-        <v>-3</v>
+      <c r="C20" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1156,28 +1619,28 @@
       <c r="H20" s="5"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+    <row r="21" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="22">
-        <v>7</v>
+      <c r="C21" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="32" t="str">
         <f>C19</f>
-        <v>1</v>
+        <v>x</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1187,7 +1650,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1204,7 +1667,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1212,18 +1675,18 @@
         <v>1</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5">
+      <c r="G25" s="5" t="e">
         <f>C23*E25+$H$13*E25</f>
-        <v>-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="5">
+      <c r="I25" s="5" t="e">
         <f>C23*G25+$H$14*E25</f>
-        <v>-21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1234,7 +1697,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1247,10 +1710,10 @@
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+    <row r="28" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="e">
         <f t="array" ref="B28:B30">E25*$J$2:$J$4+G25*$H$2:$H$4+I25*$F$2:$F$4</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1261,9 +1724,9 @@
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>-24</v>
+    <row r="29" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1274,9 +1737,9 @@
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7">
-        <v>-24</v>
+    <row r="30" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1287,14 +1750,14 @@
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="s">
+    <row r="31" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="32" t="str">
         <f>C20</f>
-        <v>-3</v>
+        <v>x</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1329,14 +1792,14 @@
         <v>1</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="5">
+      <c r="G34" s="5" t="e">
         <f>C32*E34+$H$13*E34</f>
-        <v>-8</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="5">
+      <c r="I34" s="5" t="e">
         <f>C32*G34+$H$14*E34</f>
-        <v>7</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J34" s="6"/>
     </row>
@@ -1365,9 +1828,9 @@
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
+      <c r="B37" s="4" t="e">
         <f t="array" ref="B37:B39">E34*$J$2:$J$4+G34*$H$2:$H$4+I34*$F$2:$F$4</f>
-        <v>24</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1379,8 +1842,8 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>8</v>
+      <c r="B38" s="4" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1392,8 +1855,8 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="7">
-        <v>-32</v>
+      <c r="B39" s="7" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1406,12 +1869,12 @@
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="32" t="str">
         <f>C21</f>
-        <v>7</v>
+        <v>x</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1446,14 +1909,14 @@
         <v>1</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="5">
+      <c r="G43" s="5" t="e">
         <f>C41*E43+$H$13*E43</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="5">
+      <c r="I43" s="5" t="e">
         <f>C41*G43+$H$14*E43</f>
-        <v>-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="J43" s="6"/>
     </row>
@@ -1482,9 +1945,9 @@
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="B46" s="4" t="e">
         <f t="array" ref="B46:B48">E43*$J$2:$J$4+G43*$H$2:$H$4+I43*$F$2:$F$4</f>
-        <v>-36</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1496,8 +1959,8 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="4">
-        <v>-12</v>
+      <c r="B47" s="4" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -1509,8 +1972,8 @@
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="7">
-        <v>-12</v>
+      <c r="B48" s="7" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1521,48 +1984,60 @@
       <c r="I48" s="8"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="50" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="35">
+      <c r="G51" s="33" t="e">
         <f t="array" ref="G51:G53">B28:B30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="5" t="str">
         <f>C23</f>
-        <v>1</v>
+        <v>x</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="36">
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="34" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="36">
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="34" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1570,45 +2045,45 @@
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="36">
+      <c r="G55" s="34" t="e">
         <f t="array" ref="G55:G57">B37:B39</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="5" t="str">
         <f>C32</f>
-        <v>-3</v>
+        <v>x</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="34" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="36">
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="34" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -1616,46 +2091,51 @@
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="36">
+      <c r="G59" s="34" t="e">
         <f t="array" ref="G59:G61">B46:B48</f>
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="5" t="str">
         <f>C41</f>
-        <v>7</v>
+        <v>x</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="36">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="34" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="37">
-        <v>-12</v>
+      <c r="G61" s="35" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B50:J50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Типовик 6 - Собственные значения и вектора.xlsx
+++ b/Типовик 6 - Собственные значения и вектора.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Boris\Documents\MIREA\Course2\Vychmat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boris\Documents\UNI\Вычмат\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFEBF3D-72A7-4854-A80F-5719654FF045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09EF28E-CEC3-4A0C-A569-F169286886CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{230C48AD-2663-48CD-B354-288650DF21D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{230C48AD-2663-48CD-B354-288650DF21D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Изначальная матрица</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>или</t>
+  </si>
+  <si>
+    <t>поменять y0 на любой другой вектор, например поменять 0 на 1 в первой координате заменив на (1; 1; 0) вектор</t>
+  </si>
+  <si>
+    <t>попробовать разные значения y0 в общем</t>
   </si>
 </sst>
 </file>
@@ -955,22 +964,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C39C05-0506-4240-8892-3FBD3A4302FB}">
   <dimension ref="A1:AZ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="37" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" style="37" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>30</v>
       </c>
@@ -1051,7 +1064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
@@ -1104,7 +1117,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AR5" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -1138,7 +1151,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AR6" s="23" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -1172,7 +1185,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1194,7 @@
       <c r="AT7" s="37"/>
       <c r="AU7" s="37"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="e">
         <f t="array" ref="B8:B10">J2:J4</f>
         <v>#VALUE!</v>
@@ -1203,7 +1216,7 @@
       <c r="AT8" s="37"/>
       <c r="AU8" s="37"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="e">
         <v>#VALUE!</v>
       </c>
@@ -1246,7 +1259,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16" t="e">
         <v>#VALUE!</v>
       </c>
@@ -1289,7 +1302,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AR11" s="23" t="e">
         <f t="array" ref="AR11:AU11">AR6:AU6/AR6</f>
         <v>#VALUE!</v>
@@ -1320,7 +1333,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>27</v>
       </c>
@@ -1331,12 +1344,24 @@
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
       <c r="AR12" s="37"/>
       <c r="AS12" s="37"/>
       <c r="AT12" s="37"/>
       <c r="AU12" s="37"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1357,6 +1382,9 @@
         <f t="array" ref="H13">MMULT(B13:D15,E8:E10)</f>
         <v>#VALUE!</v>
       </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
       <c r="AR13" s="23" t="e">
         <f t="array" ref="AR13">AR9:AU9</f>
         <v>#VALUE!</v>
@@ -1390,7 +1418,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1437,7 +1465,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1484,13 +1512,13 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AR16" s="37"/>
       <c r="AS16" s="37"/>
       <c r="AT16" s="37"/>
       <c r="AU16" s="37"/>
     </row>
-    <row r="17" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:52" x14ac:dyDescent="0.3">
       <c r="AR17" s="23" t="e">
         <f t="array" ref="AR17:AU17">AR13:AU13</f>
         <v>#VALUE!</v>
@@ -1521,7 +1549,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
         <v>25</v>
       </c>
@@ -1562,7 +1590,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1633,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1647,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
@@ -1633,8 +1661,8 @@
       <c r="H21" s="22"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1678,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1667,7 +1695,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1686,7 +1714,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1697,7 +1725,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1710,7 +1738,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="e">
         <f t="array" ref="B28:B30">E25*$J$2:$J$4+G25*$H$2:$H$4+I25*$F$2:$F$4</f>
         <v>#VALUE!</v>
@@ -1724,7 +1752,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="e">
         <v>#VALUE!</v>
       </c>
@@ -1737,7 +1765,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7" t="e">
         <v>#VALUE!</v>
       </c>
@@ -1750,8 +1778,8 @@
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>16</v>
       </c>
@@ -1767,7 +1795,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1784,7 +1812,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1803,7 +1831,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1814,7 +1842,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1855,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="e">
         <f t="array" ref="B37:B39">E34*$J$2:$J$4+G34*$H$2:$H$4+I34*$F$2:$F$4</f>
         <v>#VALUE!</v>
@@ -1841,7 +1869,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="e">
         <v>#VALUE!</v>
       </c>
@@ -1854,7 +1882,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="e">
         <v>#VALUE!</v>
       </c>
@@ -1867,8 +1895,8 @@
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="31" t="s">
         <v>16</v>
       </c>
@@ -1884,7 +1912,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1901,7 +1929,7 @@
       </c>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1920,7 +1948,7 @@
       </c>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1931,7 +1959,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>22</v>
       </c>
@@ -1944,7 +1972,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="e">
         <f t="array" ref="B46:B48">E43*$J$2:$J$4+G43*$H$2:$H$4+I43*$F$2:$F$4</f>
         <v>#VALUE!</v>
@@ -1958,7 +1986,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="e">
         <v>#VALUE!</v>
       </c>
@@ -1971,7 +1999,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="7" t="e">
         <v>#VALUE!</v>
       </c>
@@ -1984,7 +2012,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="9"/>
     </row>
-    <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="41" t="s">
         <v>28</v>
       </c>
@@ -1997,7 +2025,7 @@
       <c r="I50" s="41"/>
       <c r="J50" s="41"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
@@ -2010,7 +2038,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
         <v>13</v>
@@ -2027,7 +2055,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2037,7 +2065,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2045,7 +2073,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2056,7 +2084,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="5" t="s">
         <v>14</v>
@@ -2073,7 +2101,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2083,7 +2111,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2091,7 +2119,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2102,7 +2130,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="5" t="s">
         <v>15</v>
@@ -2119,7 +2147,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -2135,7 +2163,7 @@
     <mergeCell ref="B50:J50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>